--- a/biology/Médecine/Pierre_Vendryes/Pierre_Vendryes.xlsx
+++ b/biology/Médecine/Pierre_Vendryes/Pierre_Vendryes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Vendryes est un médecin, physiologiste et philosophe français né à Paris 6e le 18 décembre 1908 et mort à Paris 14e le 24 octobre 1989[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Vendryes est un médecin, physiologiste et philosophe français né à Paris 6e le 18 décembre 1908 et mort à Paris 14e le 24 octobre 1989.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la soutenance d'une thèse de doctorat sur Claude Bernard[4], Pierre Vendryes a été professeur de physiologie théorique à l'Hôpital Saint-Antoine, à Paris, de 1959 à 1971[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la soutenance d'une thèse de doctorat sur Claude Bernard, Pierre Vendryes a été professeur de physiologie théorique à l'Hôpital Saint-Antoine, à Paris, de 1959 à 1971. 
 Il a été membre de la Société de statistique de Paris à partir de 1949, puis en a été le président à partir de 1962. 
 Il a écrit de nombreux ouvrages et articles, et s'est spécialisé dans l'étude de l'autonomie du vivant, ainsi que dans la modélisation mathématique de la physiologie. Dans Vie et Probabilités (1942), il développe une idée de Claude Bernard selon laquelle l'autonomie est la faculté de s'affranchir des perturbations aléatoires du milieu, en la caractérisant comme un processus stochastique.
 </t>
@@ -544,7 +558,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Vendryes était le fils du linguiste et celtiste Joseph Vendryes et le frère du physicien nucléaire Georges Vendryes. Son épouse était Françoise Vendryes.
 </t>
@@ -575,7 +591,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vie et probabilité, préface de Louis de Broglie, éditions Albin Michel, 1942.
 L’acquisition de la science, éditions Albin Michel, 1946.
@@ -610,7 +628,9 @@
           <t>Autres publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1940. Les « conditions déterminées » de Claude Bernard, 1 volume, thèse de doctorat en médecine, Paris, Vigot Éditions.
 1948. Les lois des régulations physiologiques, Semaine des Hôpitaux de Paris, 24, 2228.
